--- a/src/main/resources/excels/RankModel.xlsx
+++ b/src/main/resources/excels/RankModel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="RankModel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -245,21 +245,18 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">int </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -527,10 +524,10 @@
   <dxfs count="9">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -547,7 +544,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -566,7 +563,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -585,7 +582,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -632,7 +629,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -688,8 +685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:F135" tableType="xml" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" connectionId="2">
-  <autoFilter ref="A2:F135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F135" tableType="xml" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" connectionId="2">
+  <autoFilter ref="A3:F135"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="name" name="name" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/ArrayOfRankModel/RankModel/name" xmlDataType="string"/>
@@ -757,7 +754,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,9 +786,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -823,6 +821,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,12 +997,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1036,43 +1033,43 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
